--- a/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_CAP.xlsx
+++ b/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_CAP.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\SCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE14925D-6F97-471A-ACA9-DFA217E76D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722B30DA-C311-4AF1-9A77-A6DC7ED6CFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="220">
   <si>
     <t>type</t>
   </si>
@@ -348,9 +348,6 @@
     <t xml:space="preserve">Q4. Avez-vous entendu parler de la bilharziose ? </t>
   </si>
   <si>
-    <t>select_multiple manisfestations_bil</t>
-  </si>
-  <si>
     <t>${Q4_Entendu_parler_bil} = 'Oui'</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t xml:space="preserve">Q5. Comment peut-on reconnaitre quelqu’un qui a la bilharziose ?  </t>
   </si>
   <si>
-    <t>${Q4_Entendu_parler_bil} = 'Oui' and selected(${Q5_Manifestations_bil}, 'Other')</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q5b. Autres manisfestations de la bilharziose ?  </t>
   </si>
   <si>
@@ -400,9 +394,6 @@
   </si>
   <si>
     <t>prev_bil</t>
-  </si>
-  <si>
-    <t>Q7. Autres_prevention</t>
   </si>
   <si>
     <t>Q8_fait_bil</t>
@@ -481,9 +472,6 @@
     </r>
   </si>
   <si>
-    <t>select_one list nbre_urine_sang</t>
-  </si>
-  <si>
     <t>1= Une personne</t>
   </si>
   <si>
@@ -644,12 +632,6 @@
     <t>Q23. Avez-vous des suggestions pour améliorer les prochaines campagnes ?</t>
   </si>
   <si>
-    <t>selected(${Q7_Prevention}, 'Other')</t>
-  </si>
-  <si>
-    <t>${Q11_nbre_urine_sang}= 'Oui'</t>
-  </si>
-  <si>
     <t>${Q8_fait_bil}= 'Oui'</t>
   </si>
   <si>
@@ -662,9 +644,6 @@
     <t>${Q17_informe} = 'Oui'</t>
   </si>
   <si>
-    <t>${Q20_nbre_non_ttt} = 'Oui'</t>
-  </si>
-  <si>
     <t>${Q23_Suggestions} = 'Oui'</t>
   </si>
   <si>
@@ -689,9 +668,6 @@
     <t>4= Médicament traditionnel</t>
   </si>
   <si>
-    <t>Pas _traite</t>
-  </si>
-  <si>
     <t>Comprimes</t>
   </si>
   <si>
@@ -714,12 +690,42 @@
   </si>
   <si>
     <t>(BF - Novembre 2020) ECT Schisto - 2. Formulaire Enquete CAP</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>bf_ECT_Schisto_2_cap_202011</t>
+  </si>
+  <si>
+    <t>select_multiple manifestation_bil</t>
+  </si>
+  <si>
+    <t>Q7_Autres_prevention</t>
+  </si>
+  <si>
+    <t>Pas_traite</t>
+  </si>
+  <si>
+    <t>select_one nbre_urine_sang</t>
+  </si>
+  <si>
+    <t>${Q4_Entendu_parler_bil} = 'Oui' and selected(${Q5_manisfestations_bil}, 'Other')</t>
+  </si>
+  <si>
+    <t>selected(${Q6_Prevention}, 'Other')</t>
+  </si>
+  <si>
+    <t>${Q10_urine_sang}= 'Oui'</t>
+  </si>
+  <si>
+    <t>${Q19_personnes_non_ttt} = 'Oui'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -797,7 +803,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,6 +813,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -854,6 +866,10 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,14 +1183,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1363,20 +1379,20 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1384,16 +1400,16 @@
         <v>41</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>112</v>
+      <c r="H12" s="22" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1401,10 +1417,10 @@
         <v>76</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>37</v>
@@ -1414,17 +1430,17 @@
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>126</v>
+      <c r="B14" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1432,10 +1448,10 @@
         <v>82</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>37</v>
@@ -1446,16 +1462,16 @@
         <v>78</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1463,30 +1479,30 @@
         <v>82</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>195</v>
+      <c r="H18" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1494,16 +1510,16 @@
         <v>82</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>195</v>
+      <c r="H19" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1511,10 +1527,10 @@
         <v>82</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>37</v>
@@ -1525,16 +1541,16 @@
         <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1542,10 +1558,10 @@
         <v>82</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>37</v>
@@ -1556,10 +1572,10 @@
         <v>82</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>37</v>
@@ -1570,10 +1586,10 @@
         <v>82</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>37</v>
@@ -1584,16 +1600,16 @@
         <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1601,10 +1617,10 @@
         <v>82</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>37</v>
@@ -1616,16 +1632,16 @@
         <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>200</v>
+      <c r="H27" s="22" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1633,10 +1649,10 @@
         <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>37</v>
@@ -1647,16 +1663,16 @@
         <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1664,10 +1680,10 @@
         <v>82</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>37</v>
@@ -1678,16 +1694,16 @@
         <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1732,14 +1748,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2025,57 +2041,57 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2108,7 +2124,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E33" s="13"/>
       <c r="G33" s="14"/>
@@ -2118,10 +2134,10 @@
         <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E34" s="13"/>
     </row>
@@ -2130,10 +2146,10 @@
         <v>47</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E35" s="13"/>
     </row>
@@ -2142,10 +2158,10 @@
         <v>47</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E36" s="13"/>
     </row>
@@ -2154,10 +2170,10 @@
         <v>47</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E37" s="13"/>
     </row>
@@ -2166,10 +2182,10 @@
         <v>47</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2177,10 +2193,10 @@
         <v>47</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E39" s="13"/>
     </row>
@@ -2189,10 +2205,10 @@
         <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E40" s="13"/>
     </row>
@@ -2201,10 +2217,10 @@
         <v>47</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -2212,10 +2228,10 @@
         <v>77</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -2223,10 +2239,10 @@
         <v>77</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2234,10 +2250,10 @@
         <v>77</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2245,10 +2261,10 @@
         <v>79</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2256,10 +2272,10 @@
         <v>79</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2267,10 +2283,10 @@
         <v>79</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
@@ -2278,10 +2294,10 @@
         <v>79</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -2289,10 +2305,10 @@
         <v>79</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -2300,10 +2316,10 @@
         <v>77</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -2311,10 +2327,10 @@
         <v>77</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
@@ -2322,65 +2338,65 @@
         <v>77</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>209</v>
-      </c>
       <c r="C53" s="19" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2395,19 +2411,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2427,11 +2443,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2">
-        <v>20201115</v>
+        <v>209</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>61</v>

--- a/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_CAP.xlsx
+++ b/Coverage Survey/Burkina Faso/SCH/BF_ECT_Schisto_2020_Formulaire_Enquete_CAP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Burkina Faso\SCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722B30DA-C311-4AF1-9A77-A6DC7ED6CFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C547D1-792E-44B6-BC40-4CD5CD3D0A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="216">
   <si>
     <t>type</t>
   </si>
@@ -647,15 +647,6 @@
     <t>${Q23_Suggestions} = 'Oui'</t>
   </si>
   <si>
-    <t>Une_personne</t>
-  </si>
-  <si>
-    <t>Deux_personnes</t>
-  </si>
-  <si>
-    <t>Trois_personnes et plus</t>
-  </si>
-  <si>
     <t xml:space="preserve">1= Pas été traité </t>
   </si>
   <si>
@@ -692,9 +683,6 @@
     <t>(BF - Novembre 2020) ECT Schisto - 2. Formulaire Enquete CAP</t>
   </si>
   <si>
-    <t>p</t>
-  </si>
-  <si>
     <t>bf_ECT_Schisto_2_cap_202011</t>
   </si>
   <si>
@@ -707,7 +695,7 @@
     <t>Pas_traite</t>
   </si>
   <si>
-    <t>select_one nbre_urine_sang</t>
+    <t>select_one  nbre_urine_sang</t>
   </si>
   <si>
     <t>${Q4_Entendu_parler_bil} = 'Oui' and selected(${Q5_manisfestations_bil}, 'Other')</t>
@@ -835,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -857,19 +845,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1189,8 +1170,8 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1248,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1379,8 +1360,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
-        <v>212</v>
+      <c r="A11" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>109</v>
@@ -1408,8 +1389,8 @@
       <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>216</v>
+      <c r="H12" s="20" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1430,8 +1411,8 @@
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>213</v>
+      <c r="B14" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>125</v>
@@ -1439,8 +1420,8 @@
       <c r="E14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>217</v>
+      <c r="H14" s="20" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1474,7 +1455,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>82</v>
       </c>
@@ -1488,9 +1469,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>215</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>128</v>
@@ -1501,11 +1482,11 @@
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>82</v>
       </c>
@@ -1518,11 +1499,11 @@
       <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -1536,7 +1517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>80</v>
       </c>
@@ -1553,7 +1534,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>82</v>
       </c>
@@ -1566,8 +1547,12 @@
       <c r="E22" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="30.75" x14ac:dyDescent="0.2">
+      <c r="H22" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="30.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
@@ -1581,7 +1566,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
@@ -1595,7 +1580,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1612,7 +1597,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>82</v>
       </c>
@@ -1627,7 +1612,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1635,16 +1620,16 @@
         <v>181</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H27" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>82</v>
       </c>
@@ -1658,7 +1643,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1671,11 +1656,11 @@
       <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H29" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>82</v>
       </c>
@@ -1689,7 +1674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -1702,11 +1687,11 @@
       <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="21" t="s">
+      <c r="H31" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -1752,16 +1737,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="45" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2313,89 +2299,56 @@
     </row>
     <row r="50" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>195</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B52" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>197</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="C53" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C54" s="19" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2418,12 +2371,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2443,13 +2396,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="C2">
+        <v>20201115</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>61</v>
